--- a/templates/flow_answer_template.xlsx
+++ b/templates/flow_answer_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B1C931-14CB-4EEC-BE39-95BD584FB352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B0AB8-5705-4FE6-A4DF-194A98829E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -249,21 +249,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,7 +1397,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1425,30 +1424,30 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1568,21 +1567,20 @@
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -1599,16 +1597,16 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="H16" s="20" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
